--- a/トラック運賃.xlsx
+++ b/トラック運賃.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canon\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A9A1A8-E455-40FF-9696-31A72B3A4B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F299B132-2953-4D3E-8C22-D898137503F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06E55D0D-4AEC-4DAA-870F-0F12DD6CCCA8}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{06E55D0D-4AEC-4DAA-870F-0F12DD6CCCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="10t" sheetId="1" r:id="rId1"/>
+    <sheet name="10t (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="編集" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="110">
   <si>
     <t>変数</t>
     <rPh sb="0" eb="2">
@@ -414,13 +416,6 @@
     <t>車両償却費</t>
     <rPh sb="0" eb="5">
       <t>シャリョウショウキャクヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>車両調達費</t>
-    <rPh sb="0" eb="5">
-      <t>シャリョウチョウタツヒ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -732,16 +727,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>変動費/年</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンドウヒ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>燃料費</t>
     <rPh sb="0" eb="3">
       <t>ネンリョウヒ</t>
@@ -756,6 +741,194 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>大口需要者向け軽油オーリー渡価格</t>
+    <rPh sb="0" eb="6">
+      <t>オオグチジュヨウシャム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全国一律120円/L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弊社</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トラック標準運賃 国交省vs弊社 基準比較</t>
+    <rPh sb="4" eb="8">
+      <t>ヒョウジュンウンチン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コッコウショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘイシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>尿素水費</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイヤ費</t>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイヤ単価</t>
+    <rPh sb="3" eb="5">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交換本数</t>
+    <rPh sb="0" eb="4">
+      <t>コウカンホンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイヤ交換走行距離</t>
+    <rPh sb="3" eb="5">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ソウコウキョリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オイル交換距離</t>
+    <rPh sb="3" eb="7">
+      <t>コウカンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>燃費</t>
+    <rPh sb="0" eb="2">
+      <t>ネンピ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（車両の調達価格＋付属備品等の費用）÷車両償却年数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車両+付属品調達費</t>
+    <rPh sb="0" eb="2">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウタツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動車関係税総額</t>
+    <rPh sb="0" eb="3">
+      <t>ジドウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トラック等 自動車の燃費基準値</t>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジドウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>ネンピキジュンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オイル交換1回あたり量</t>
+    <rPh sb="3" eb="5">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オイル単価</t>
+    <rPh sb="3" eb="5">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オイル交換工賃</t>
+    <rPh sb="3" eb="5">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウチン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変動費</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>オイル費</t>
     <rPh sb="3" eb="4">
       <t>ヒ</t>
@@ -763,112 +936,286 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>大口需要者向け軽油オーリー渡価格</t>
-    <rPh sb="0" eb="6">
-      <t>オオグチジュヨウシャム</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイユ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全国一律120円/L</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弊社</t>
+    <t>尿素水費</t>
     <rPh sb="0" eb="2">
-      <t>ヘイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トラック標準運賃 国交省vs弊社 基準比較</t>
-    <rPh sb="4" eb="8">
-      <t>ヒョウジュンウンチン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>コッコウショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘイシャ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>尿素水費</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>車検・修理費</t>
+      <t>ニョウソ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>尿素水燃費</t>
+    <rPh sb="0" eb="2">
+      <t>ニョウソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンピ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイヤ交換工賃</t>
+    <rPh sb="3" eb="5">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウチン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車検費</t>
     <rPh sb="0" eb="2">
       <t>シャケン</t>
     </rPh>
-    <rPh sb="3" eb="6">
-      <t>シュウリヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイヤ費</t>
-    <rPh sb="3" eb="4">
+    <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイヤ単価</t>
+    <t>年間車検整備費</t>
+    <rPh sb="0" eb="7">
+      <t>ネンカンシャケンセイビヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年間一般修理費</t>
+    <rPh sb="0" eb="7">
+      <t>ネンカンイッパンシュウリヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原価調査結果</t>
+    <rPh sb="0" eb="6">
+      <t>ゲンカチョウサケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車種別に設定</t>
+    <rPh sb="0" eb="3">
+      <t>シャシュベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>適正利潤</t>
+    <rPh sb="0" eb="4">
+      <t>テキセイリジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>考慮(15%に含む)</t>
+    <rPh sb="0" eb="2">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベースとなる資産×
+自己資本比率×0.1
+÷(1-利益課税率)</t>
+    <rPh sb="6" eb="8">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>ジコシホンヒリツ</t>
+    </rPh>
+    <rPh sb="25" eb="30">
+      <t>リエキカゼイリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10t</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>間接費(固定費相当額)</t>
+    <rPh sb="0" eb="2">
+      <t>カンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Estat 賃金構造基本統計調査 産業中分類(2023)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経済耐用年数(減価償却を計算するための基準)</t>
+    <rPh sb="0" eb="2">
+      <t>ケイザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動車税種別割表</t>
+    <rPh sb="0" eb="7">
+      <t>ジドウシャゼイシュベツワリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>環境性能割表</t>
+    <rPh sb="0" eb="6">
+      <t>カンキョウセイノウワリヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重量税表</t>
+    <rPh sb="0" eb="4">
+      <t>ジュウリョウゼイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自賠責保険表</t>
+    <rPh sb="0" eb="6">
+      <t>ジバイセキホケンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定期検査費</t>
+    <rPh sb="0" eb="5">
+      <t>テイキケンサヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>法定一般点検</t>
+    <rPh sb="0" eb="2">
+      <t>ホウテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>車両価格</t>
+    <rPh sb="0" eb="4">
+      <t>シャリョウカカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>労働時間(h/年)</t>
+    <rPh sb="0" eb="4">
+      <t>ロウドウジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固定費/h</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経産省 大口需要者向け軽油ローリー渡価格</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オオグチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>令和3年度 全国道路・街路交通情勢調査</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>交換本数</t>
-    <rPh sb="0" eb="4">
-      <t>コウカンホンスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイヤ交換走行距離</t>
-    <rPh sb="3" eb="5">
-      <t>コウカン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ソウコウキョリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オイル交換距離</t>
-    <rPh sb="3" eb="7">
-      <t>コウカンキョリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>燃費</t>
-    <rPh sb="0" eb="2">
-      <t>ネンピ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.mlit.go.jp/jidosha/content/001732622.pdf</t>
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ゼンコクドウロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガイロ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>コウツウジョウセイチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変動費/km</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンドウヒ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -877,9 +1224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,13 +1360,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <color theme="1"/>
-      <name val="UD デジタル 教科書体 NK-B"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <color rgb="FFC00000"/>
       <name val="BIZ UDPゴシック"/>
       <family val="3"/>
@@ -1031,8 +1371,66 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="UD デジタル 教科書体 NK-B"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="UD デジタル 教科書体 NK-B"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="UD デジタル 教科書体 NK-B"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック Light"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1051,8 +1449,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1326,32 +1730,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -1403,16 +1781,299 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1434,294 +2095,478 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="0" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="25" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="24" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="24" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="22" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="24" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
+    <cellStyle name="桁区切り" xfId="2" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2034,10 +2879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E4E92-4C16-435A-B914-3609AE42C8E0}">
-  <dimension ref="B1:J69"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -2045,669 +2893,2386 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="12" customWidth="1"/>
     <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.75" style="20" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="9" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
-        <v>66</v>
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="103" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G3" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="45"/>
+      <c r="G3" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="70"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
+      <c r="H4" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="82" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="18"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="83" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="44" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="84" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="13">
         <v>200</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
+    <row r="8" spans="2:10" ht="33.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="69"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G11" s="16">
         <f>318.7*12+911.3</f>
         <v>4735.7</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H11" s="16">
         <f>282*12+472.6</f>
         <v>3856.6</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J11" s="9">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="90" t="s">
+    <row r="12" spans="2:10" s="83" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="68"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E12" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F12" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="90" t="s">
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="68"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="91" t="s">
+      <c r="G13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="68"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="46" t="s">
+      <c r="G14" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="68"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48">
+      <c r="F15" s="74"/>
+      <c r="G15" s="22">
         <f>4736*1.05*1.05</f>
         <v>5221.4400000000005</v>
       </c>
-      <c r="H14" s="48">
-        <f>H10</f>
+      <c r="H15" s="22">
+        <f>H11</f>
         <v>3856.6</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="8"/>
-      <c r="C15" s="52" t="s">
+    <row r="16" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="68"/>
+      <c r="C16" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D16" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="92" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="68"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="27" x14ac:dyDescent="0.4">
-      <c r="B16" s="8"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="91" t="s">
+      <c r="E17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="68" t="s">
+      <c r="F17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="68"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="68"/>
+      <c r="C19" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="27">
-        <v>5</v>
-      </c>
-      <c r="H16" s="44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="8"/>
-      <c r="C18" s="52" t="s">
+      <c r="D19" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="E19" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="13">
+        <v>38900</v>
+      </c>
+      <c r="H19" s="13">
+        <v>38900</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="68"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E20" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="27">
-        <v>38900</v>
-      </c>
-      <c r="H18" s="27">
-        <v>38900</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="90" t="s">
+      <c r="G20" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="68"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="94" t="s">
+      <c r="E21" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="56">
-        <v>0.02</v>
-      </c>
-      <c r="H19" s="56">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="8"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="95" t="s">
+      <c r="G21" s="13">
+        <v>26000</v>
+      </c>
+      <c r="H21" s="13">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="68"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="74"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="68"/>
+      <c r="C23" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="68"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="68"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="68"/>
+      <c r="C26" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="27">
-        <v>26000</v>
-      </c>
-      <c r="H20" s="27">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="8"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="8"/>
-      <c r="C22" s="52" t="s">
+      <c r="E26" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="68"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="68"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="68"/>
+      <c r="C29" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="8"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="71"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="8"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-    </row>
-    <row r="25" spans="2:10" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B25" s="8"/>
-      <c r="C25" s="52" t="s">
+      <c r="H29" s="24">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2024.11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="68"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="68"/>
+      <c r="C31" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="55">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="20">
-        <v>2024.11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="8"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="H26" s="55"/>
-    </row>
-    <row r="27" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="8"/>
-      <c r="C27" s="52" t="s">
+      <c r="D31" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="E31" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="68"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="68"/>
+      <c r="C33" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="D33" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="8"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="66"/>
-    </row>
-    <row r="29" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="8"/>
-      <c r="C29" s="35" t="s">
+      <c r="F33" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="97" t="s">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="68"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="69"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+    </row>
+    <row r="38" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="68"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="68"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="68"/>
+      <c r="C41" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="68"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="68"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="68"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="68"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="68"/>
+      <c r="C46" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="68"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="99"/>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="68"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="68"/>
+      <c r="C49" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="102"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="68"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="98"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="68"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="98"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="68"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="99"/>
+      <c r="F52" s="38"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="68"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="33"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="68"/>
+      <c r="C54" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="8"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-    </row>
-    <row r="31" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="10"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-    </row>
-    <row r="32" spans="2:10" s="79" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-    </row>
-    <row r="33" spans="2:10" s="79" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-    </row>
-    <row r="34" spans="2:10" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-    </row>
-    <row r="35" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="8"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="100"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="8"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="8"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="8"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="8"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="8"/>
-      <c r="C40" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="8"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="8"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="8"/>
-      <c r="C43" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="8"/>
-      <c r="C44" s="36"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="8"/>
-      <c r="C45" s="36"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="8"/>
-      <c r="C46" s="36"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="8"/>
-      <c r="C47" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="8"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="61"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B49" s="8"/>
-      <c r="C49" s="49"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="8"/>
-      <c r="C50" s="49"/>
-    </row>
-    <row r="51" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="8"/>
-      <c r="C51" s="49"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="8"/>
-      <c r="C52" s="49"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" s="8"/>
-      <c r="C53" s="49"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B54" s="8"/>
-      <c r="C54" s="49"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="8"/>
-      <c r="C55" s="49"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="8"/>
-      <c r="C56" s="49"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="8"/>
-      <c r="C57" s="49"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="8"/>
-      <c r="C58" s="50"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="10"/>
-    </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D69" s="33" t="s">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="69"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="G62" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="27" t="s">
+      <c r="H62" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="20" t="s">
+      <c r="I62" s="9" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B34:B62"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E14:F14"/>
+  <mergeCells count="20">
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C53"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B11:B35"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499340DF-0667-4A07-8691-BE45ED47C807}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:J62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G3" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="68"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="68"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13">
+        <v>200</v>
+      </c>
+      <c r="H7" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="33.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="69"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="16">
+        <f>318.7*12+911.3</f>
+        <v>4735.7</v>
+      </c>
+      <c r="H11" s="16">
+        <f>282*12+472.6</f>
+        <v>3856.6</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="83" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="68"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="68"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="68"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="68"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="22">
+        <f>4736*1.05*1.05</f>
+        <v>5221.4400000000005</v>
+      </c>
+      <c r="H15" s="22">
+        <f>H11</f>
+        <v>3856.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="68"/>
+      <c r="C16" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="68"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="68"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="68"/>
+      <c r="C19" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="13">
+        <v>38900</v>
+      </c>
+      <c r="H19" s="13">
+        <v>38900</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="68"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="68"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="13">
+        <v>26000</v>
+      </c>
+      <c r="H21" s="13">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="68"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="74"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="68"/>
+      <c r="C23" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="68"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="68"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="68"/>
+      <c r="C26" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="68"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="68"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="68"/>
+      <c r="C29" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="24">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2024.11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="68"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="68"/>
+      <c r="C31" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="68"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="68"/>
+      <c r="C33" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="68"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="69"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+    </row>
+    <row r="38" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="68"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="68"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="68"/>
+      <c r="C41" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="68"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="68"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="68"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="68"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="68"/>
+      <c r="C46" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="68"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="99"/>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="68"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="68"/>
+      <c r="C49" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="102"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="68"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="98"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="68"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="98"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="68"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="99"/>
+      <c r="F52" s="38"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="68"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="33"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="68"/>
+      <c r="C54" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="69"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B11:B35"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF9E05E-FE83-458D-823B-39DF8F09A628}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:Q54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="4.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.125" style="113" customWidth="1"/>
+    <col min="11" max="11" width="22.625" style="60" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="113" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.875" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="148" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="126">
+        <v>3857000</v>
+      </c>
+      <c r="K5" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="90">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="151" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="62"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="127">
+        <v>0</v>
+      </c>
+      <c r="K6" s="152" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="68"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="91">
+        <v>7.44</v>
+      </c>
+      <c r="Q6" s="153" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="62"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="128">
+        <v>0</v>
+      </c>
+      <c r="K7" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="160">
+        <f>P5/P6</f>
+        <v>17.204301075268816</v>
+      </c>
+      <c r="Q7" s="148"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B8" s="63"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="129">
+        <f>J5+J6+J7</f>
+        <v>3857000</v>
+      </c>
+      <c r="K8" s="148"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="157">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="151" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G9" s="68"/>
+      <c r="H9" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="130">
+        <v>16697000</v>
+      </c>
+      <c r="K9" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="68"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="158">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="68"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="131">
+        <v>8</v>
+      </c>
+      <c r="K10" s="152" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="68"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="158">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="159" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" s="83" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="68"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="154"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="150"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G12" s="68"/>
+      <c r="H12" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="133">
+        <v>38900</v>
+      </c>
+      <c r="K12" s="152" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="68"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="114">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="148"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G13" s="68"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="134">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="152" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="68"/>
+      <c r="N13" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="161">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="151" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="135">
+        <v>26000</v>
+      </c>
+      <c r="K14" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="68"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="115">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="153" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="136">
+        <f>(J9/J10)+J12+(J9*J13)+J14</f>
+        <v>2485965</v>
+      </c>
+      <c r="K15" s="148"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="114">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="148"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="130">
+        <v>200000</v>
+      </c>
+      <c r="K16" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="68"/>
+      <c r="N16" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="90">
+        <v>33000</v>
+      </c>
+      <c r="Q16" s="151" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="137">
+        <v>192000</v>
+      </c>
+      <c r="K17" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="155">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="138">
+        <f>J16+J17</f>
+        <v>392000</v>
+      </c>
+      <c r="K18" s="148"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="155">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G19" s="68"/>
+      <c r="H19" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="133">
+        <v>75700</v>
+      </c>
+      <c r="K19" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="68"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="91">
+        <v>80000</v>
+      </c>
+      <c r="Q19" s="153" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G20" s="68"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="135">
+        <f>(443460+320230)*0.8</f>
+        <v>610952</v>
+      </c>
+      <c r="K20" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="68"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="160">
+        <f>(P16*P17+P18)/P19</f>
+        <v>4.125</v>
+      </c>
+      <c r="Q20" s="148"/>
+    </row>
+    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="68"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="138">
+        <f>J19+J20</f>
+        <v>686652</v>
+      </c>
+      <c r="K21" s="148"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="143">
+        <v>0.15</v>
+      </c>
+      <c r="Q21" s="149" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G22" s="68"/>
+      <c r="H22" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="139">
+        <f>J9/2*0.0185</f>
+        <v>154447.25</v>
+      </c>
+      <c r="K22" s="149" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="68"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="121">
+        <f>(P7+P12+P15+P20)*P21</f>
+        <v>3.1993951612903224</v>
+      </c>
+      <c r="Q22" s="148"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G23" s="68"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="140">
+        <f>J22</f>
+        <v>154447.25</v>
+      </c>
+      <c r="K23" s="148"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="162">
+        <f>P7+P12+P15+P20+P22</f>
+        <v>24.528696236559139</v>
+      </c>
+      <c r="Q23" s="120"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G24" s="68"/>
+      <c r="H24" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="141">
+        <v>0</v>
+      </c>
+      <c r="K24" s="149" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G25" s="68"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="142">
+        <v>0</v>
+      </c>
+      <c r="K25" s="148"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G26" s="68"/>
+      <c r="H26" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="143">
+        <v>0.15</v>
+      </c>
+      <c r="K26" s="149" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G27" s="68"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="144">
+        <f>(J8+J15+J18+J21+J23+J25)*J26</f>
+        <v>1136409.6375</v>
+      </c>
+      <c r="K27" s="148"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G28" s="69"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="145">
+        <f>J8+J15+J18+J21+J23+J25+J27</f>
+        <v>8712473.8874999993</v>
+      </c>
+      <c r="K28" s="148"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G29" s="122" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="146">
+        <f>175*12</f>
+        <v>2100</v>
+      </c>
+      <c r="K29" s="148"/>
+    </row>
+    <row r="30" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="G30" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="124"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="147">
+        <f>J28/J29</f>
+        <v>4148.7970892857138</v>
+      </c>
+      <c r="K30" s="148"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="32" spans="1:17" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="60"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="60"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="60"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="60"/>
+    </row>
+    <row r="35" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="60"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="60"/>
+    </row>
+    <row r="36" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="60"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="60"/>
+    </row>
+    <row r="37" spans="1:17" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="60"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="60"/>
+    </row>
+    <row r="38" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="60"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="60"/>
+    </row>
+    <row r="39" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="60"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="60"/>
+    </row>
+    <row r="40" spans="1:17" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="60"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="60"/>
+    </row>
+    <row r="41" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="60"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="60"/>
+    </row>
+    <row r="42" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="60"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="60"/>
+    </row>
+    <row r="43" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="60"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="60"/>
+    </row>
+    <row r="44" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="60"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="60"/>
+    </row>
+    <row r="45" spans="1:17" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="60"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="60"/>
+    </row>
+    <row r="46" spans="1:17" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="60"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:17" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="60"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="156"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:17" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="60"/>
+      <c r="P48" s="156"/>
+    </row>
+    <row r="49" spans="1:17" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="60"/>
+      <c r="P49" s="156"/>
+    </row>
+    <row r="50" spans="1:17" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="60"/>
+      <c r="P50" s="156"/>
+    </row>
+    <row r="51" spans="1:17" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="60"/>
+      <c r="P51" s="156"/>
+    </row>
+    <row r="52" spans="1:17" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="60"/>
+      <c r="P52" s="156"/>
+    </row>
+    <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="60"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="60"/>
+    </row>
+    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="60"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="113"/>
+      <c r="Q54" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="M5:M23"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H18"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>